--- a/src/EgyptianeInvoicing.SignApi/wwwroot/import_invoices.xlsx
+++ b/src/EgyptianeInvoicing.SignApi/wwwroot/import_invoices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\source\repos\Egyptian-eInvoicing\src\EgyptianeInvoicing.SignApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAB4390-BA64-42BF-B5F5-79A64E900ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54D5498-C9F9-41B5-B5EE-7958070BB2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27660" yWindow="780" windowWidth="21600" windowHeight="12165" xr2:uid="{D531E08B-054A-4E0F-B4F8-A7010A51A2D8}"/>
+    <workbookView xWindow="-28920" yWindow="-1425" windowWidth="29040" windowHeight="15840" xr2:uid="{D531E08B-054A-4E0F-B4F8-A7010A51A2D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoices" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="641">
   <si>
     <t>مسلسل الفاتورة</t>
   </si>
@@ -1943,7 +1943,10 @@
     <t>نوع</t>
   </si>
   <si>
-    <t>هانى محمد جابر</t>
+    <t>اسم الشركة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رقم السجل </t>
   </si>
 </sst>
 </file>
@@ -2849,8 +2852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258C7ACB-DCA6-4C42-9FBE-BD174E200593}">
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AO6" sqref="AO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3049,8 +3052,8 @@
       <c r="H4" t="s">
         <v>639</v>
       </c>
-      <c r="I4">
-        <v>367034840</v>
+      <c r="I4" t="s">
+        <v>640</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>103</v>
@@ -3176,8 +3179,8 @@
       <c r="H6" t="s">
         <v>639</v>
       </c>
-      <c r="I6">
-        <v>367034840</v>
+      <c r="I6" t="s">
+        <v>640</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>103</v>
@@ -3256,8 +3259,8 @@
       <c r="H7" t="s">
         <v>639</v>
       </c>
-      <c r="I7">
-        <v>367034840</v>
+      <c r="I7" t="s">
+        <v>640</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>103</v>
